--- a/biology/Zoologie/Comité_interprofessionnel_des_palmipèdes_à_foie_gras/Comité_interprofessionnel_des_palmipèdes_à_foie_gras.xlsx
+++ b/biology/Zoologie/Comité_interprofessionnel_des_palmipèdes_à_foie_gras/Comité_interprofessionnel_des_palmipèdes_à_foie_gras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_interprofessionnel_des_palmip%C3%A8des_%C3%A0_foie_gras</t>
+          <t>Comité_interprofessionnel_des_palmipèdes_à_foie_gras</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Comité interprofessionnel des palmipèdes à foie gras (CIFOG) est une organisation interprofessionnelle reconnue par les pouvoirs publics depuis 1987[1] qui rassemble les producteurs et industriels du foie gras.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Comité interprofessionnel des palmipèdes à foie gras (CIFOG) est une organisation interprofessionnelle reconnue par les pouvoirs publics depuis 1987 qui rassemble les producteurs et industriels du foie gras.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_interprofessionnel_des_palmip%C3%A8des_%C3%A0_foie_gras</t>
+          <t>Comité_interprofessionnel_des_palmipèdes_à_foie_gras</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le CIFOG regroupe[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CIFOG regroupe :
 le Syndicat national des accouveurs ;
 la Confédération française de l'aviculture ;
 la Fédération nationale des producteurs de palmipèdes à foie gras ;
 la Fédération nationale des découpeurs de palmipèdes gras ;
 la Fédération française des industries d’aliments conservés ;
 l'Association inter-régionale des artisans conserveurs du grand sud-ouest.
-Son président est Michel Fruchet depuis septembre 2017[3] et la déléguée générale Marie-Pierre Pe.
-Il perçoit, en 2010, des contributions volontaires obligatoires auprès des professionnels du secteur à hauteur de 5 506 000 euros[4].
-Le CIFOG contribue au financement du club parlementaire « Club de la table française » comme à celui « Vive le foie gras » via le cabinet de lobbying Com' Publics[5].
+Son président est Michel Fruchet depuis septembre 2017 et la déléguée générale Marie-Pierre Pe.
+Il perçoit, en 2010, des contributions volontaires obligatoires auprès des professionnels du secteur à hauteur de 5 506 000 euros.
+Le CIFOG contribue au financement du club parlementaire « Club de la table française » comme à celui « Vive le foie gras » via le cabinet de lobbying Com' Publics.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_interprofessionnel_des_palmip%C3%A8des_%C3%A0_foie_gras</t>
+          <t>Comité_interprofessionnel_des_palmipèdes_à_foie_gras</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,11 +565,13 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 2018, le CIFOG a lancé un plan de filière à 5 ans, articulé autour de deux axes stratégiques[6] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 2018, le CIFOG a lancé un plan de filière à 5 ans, articulé autour de deux axes stratégiques : 
 proposer une offre en adéquation avec les attentes des consommateurs (biosécurité, bien-être animal, environnement) ;
-valoriser les produits de la filière (foie gras, magret, confit) pour une juste rémunération de tous les acteurs de la filière[7].</t>
+valoriser les produits de la filière (foie gras, magret, confit) pour une juste rémunération de tous les acteurs de la filière.</t>
         </is>
       </c>
     </row>
